--- a/lab1/wyniki.xlsx
+++ b/lab1/wyniki.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Studia\S3\geometryczne\laby\lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B0F39C-D7AF-4B79-95B5-CF14BF0806AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B3D5DC-19BD-4B53-B02E-D6E2C0F92137}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12795" yWindow="0" windowWidth="25605" windowHeight="21000" xr2:uid="{DC69B13B-1835-4D01-8DDB-9780C73D10C2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{DC69B13B-1835-4D01-8DDB-9780C73D10C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,47 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>det2x2</t>
+  </si>
+  <si>
+    <t>det3x3</t>
+  </si>
+  <si>
+    <t>2x2 vs 3x3</t>
+  </si>
+  <si>
+    <t>2x2 vs np.</t>
+  </si>
+  <si>
+    <t>3x3 vs np.</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -44,10 +85,34 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -56,8 +121,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -372,12 +452,985 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F8389A-52A1-4FB3-8579-18628203A5DB}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="10" width="8.5703125" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="12" max="14" width="8.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>49961</v>
+      </c>
+      <c r="D4" s="1">
+        <v>50039</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>46661</v>
+      </c>
+      <c r="G4" s="1">
+        <v>50039</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="3">
+        <f>10^-14</f>
+        <v>1E-14</v>
+      </c>
+      <c r="C5" s="1">
+        <v>49961</v>
+      </c>
+      <c r="D5" s="1">
+        <v>50039</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>49961</v>
+      </c>
+      <c r="G5" s="1">
+        <v>50039</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="3">
+        <f>10^-5</f>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>49961</v>
+      </c>
+      <c r="D6" s="1">
+        <v>50039</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>49961</v>
+      </c>
+      <c r="G6" s="1">
+        <v>50039</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="3">
+        <f>10^-2</f>
+        <v>0.01</v>
+      </c>
+      <c r="C7" s="1">
+        <v>49961</v>
+      </c>
+      <c r="D7" s="1">
+        <v>50039</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>49961</v>
+      </c>
+      <c r="G7" s="1">
+        <v>50039</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>49935</v>
+      </c>
+      <c r="D8" s="1">
+        <v>50015</v>
+      </c>
+      <c r="E8" s="1">
+        <v>50</v>
+      </c>
+      <c r="F8" s="1">
+        <v>49935</v>
+      </c>
+      <c r="G8" s="1">
+        <v>50015</v>
+      </c>
+      <c r="H8" s="1">
+        <v>50</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="3">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>49707</v>
+      </c>
+      <c r="D9" s="1">
+        <v>49796</v>
+      </c>
+      <c r="E9" s="1">
+        <v>497</v>
+      </c>
+      <c r="F9" s="1">
+        <v>49707</v>
+      </c>
+      <c r="G9" s="1">
+        <v>49796</v>
+      </c>
+      <c r="H9" s="1">
+        <v>497</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>50065</v>
+      </c>
+      <c r="D12" s="1">
+        <v>49931</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1">
+        <v>50066</v>
+      </c>
+      <c r="G12" s="1">
+        <v>49934</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>4</v>
+      </c>
+      <c r="J12" s="1">
+        <v>4</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="3">
+        <f>10^0</f>
+        <v>1</v>
+      </c>
+      <c r="C13" s="8">
+        <v>50065</v>
+      </c>
+      <c r="D13" s="1">
+        <v>49931</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1">
+        <v>50066</v>
+      </c>
+      <c r="G13" s="1">
+        <v>49934</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>4</v>
+      </c>
+      <c r="J13" s="1">
+        <v>4</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="3">
+        <f>10^7</f>
+        <v>10000000</v>
+      </c>
+      <c r="C14" s="8">
+        <v>50065</v>
+      </c>
+      <c r="D14" s="1">
+        <v>49931</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1">
+        <v>50066</v>
+      </c>
+      <c r="G14" s="1">
+        <v>49934</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>4</v>
+      </c>
+      <c r="J14" s="1">
+        <v>4</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="3">
+        <f>10^10</f>
+        <v>10000000000</v>
+      </c>
+      <c r="C15" s="8">
+        <v>50065</v>
+      </c>
+      <c r="D15" s="8">
+        <v>49929</v>
+      </c>
+      <c r="E15" s="8">
+        <v>6</v>
+      </c>
+      <c r="F15" s="8">
+        <v>50065</v>
+      </c>
+      <c r="G15" s="8">
+        <v>49929</v>
+      </c>
+      <c r="H15" s="8">
+        <v>6</v>
+      </c>
+      <c r="I15" s="8">
+        <v>2</v>
+      </c>
+      <c r="J15" s="8">
+        <v>2</v>
+      </c>
+      <c r="K15" s="8">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="3">
+        <v>100000000000</v>
+      </c>
+      <c r="C16" s="8">
+        <v>50040</v>
+      </c>
+      <c r="D16" s="8">
+        <v>49909</v>
+      </c>
+      <c r="E16" s="8">
+        <v>51</v>
+      </c>
+      <c r="F16" s="8">
+        <v>50039</v>
+      </c>
+      <c r="G16" s="8">
+        <v>49911</v>
+      </c>
+      <c r="H16" s="8">
+        <v>50</v>
+      </c>
+      <c r="I16" s="8">
+        <v>5</v>
+      </c>
+      <c r="J16" s="8">
+        <v>5</v>
+      </c>
+      <c r="K16" s="8">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="3">
+        <f>10^12</f>
+        <v>1000000000000</v>
+      </c>
+      <c r="C17" s="8">
+        <v>49827</v>
+      </c>
+      <c r="D17" s="8">
+        <v>49679</v>
+      </c>
+      <c r="E17" s="8">
+        <v>494</v>
+      </c>
+      <c r="F17" s="8">
+        <v>49826</v>
+      </c>
+      <c r="G17" s="8">
+        <v>49679</v>
+      </c>
+      <c r="H17" s="8">
+        <v>495</v>
+      </c>
+      <c r="I17" s="8">
+        <v>5</v>
+      </c>
+      <c r="J17" s="8">
+        <v>5</v>
+      </c>
+      <c r="K17" s="8">
+        <v>0</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1E-14</v>
+      </c>
+      <c r="C20" s="1">
+        <v>501</v>
+      </c>
+      <c r="D20" s="1">
+        <v>499</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>501</v>
+      </c>
+      <c r="G20" s="1">
+        <v>499</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="3">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="C21" s="1">
+        <v>501</v>
+      </c>
+      <c r="D21" s="1">
+        <v>499</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>501</v>
+      </c>
+      <c r="G21" s="1">
+        <v>499</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="C22" s="1">
+        <v>501</v>
+      </c>
+      <c r="D22" s="1">
+        <v>499</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>501</v>
+      </c>
+      <c r="G22" s="1">
+        <v>499</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="3">
+        <f>10^0</f>
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>499</v>
+      </c>
+      <c r="D23" s="1">
+        <v>498</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3</v>
+      </c>
+      <c r="F23" s="1">
+        <v>499</v>
+      </c>
+      <c r="G23" s="1">
+        <v>498</v>
+      </c>
+      <c r="H23" s="1">
+        <v>3</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>148</v>
+      </c>
+      <c r="D26" s="1">
+        <v>146</v>
+      </c>
+      <c r="E26" s="1">
+        <v>706</v>
+      </c>
+      <c r="F26" s="1">
+        <v>155</v>
+      </c>
+      <c r="G26" s="1">
+        <v>419</v>
+      </c>
+      <c r="H26" s="1">
+        <v>426</v>
+      </c>
+      <c r="I26" s="1">
+        <v>690</v>
+      </c>
+      <c r="J26" s="1">
+        <v>763</v>
+      </c>
+      <c r="K26" s="1">
+        <v>541</v>
+      </c>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="3">
+        <v>9.9999999999999998E-17</v>
+      </c>
+      <c r="C27" s="1">
+        <v>148</v>
+      </c>
+      <c r="D27" s="1">
+        <v>145</v>
+      </c>
+      <c r="E27" s="1">
+        <v>707</v>
+      </c>
+      <c r="F27" s="1">
+        <v>155</v>
+      </c>
+      <c r="G27" s="1">
+        <v>432</v>
+      </c>
+      <c r="H27" s="1">
+        <v>432</v>
+      </c>
+      <c r="I27" s="1">
+        <v>687</v>
+      </c>
+      <c r="J27" s="1">
+        <v>757</v>
+      </c>
+      <c r="K27" s="1">
+        <v>537</v>
+      </c>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="3">
+        <v>1E-14</v>
+      </c>
+      <c r="C28" s="1">
+        <v>144</v>
+      </c>
+      <c r="D28" s="1">
+        <v>141</v>
+      </c>
+      <c r="E28" s="1">
+        <v>715</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I28" s="1">
+        <v>285</v>
+      </c>
+      <c r="J28" s="1">
+        <v>380</v>
+      </c>
+      <c r="K28" s="1">
+        <v>121</v>
+      </c>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="3">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="C29" s="1">
+        <v>89</v>
+      </c>
+      <c r="D29" s="1">
+        <v>71</v>
+      </c>
+      <c r="E29" s="1">
+        <v>840</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I29" s="1">
+        <v>160</v>
+      </c>
+      <c r="J29" s="1">
+        <v>160</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
+      <c r="B30" s="3">
+        <v>1E-10</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="5"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="5"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="5"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="5"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="5"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="5"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="5"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="5"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A12:A17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>